--- a/Data_Envariance/ibmqx4_n_qubits_envariance.xlsx
+++ b/Data_Envariance/ibmqx4_n_qubits_envariance.xlsx
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,11 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1318,13 +1326,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.79641651596293195</c:v>
+                  <c:v>0.95294464233044762</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.923810864163225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95294464233044762</c:v>
+                  <c:v>0.79641651596293195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,33 +4574,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
+        <v>0.95294464233044762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.923810864163225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.79641651596293195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.923810864163225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.95294464233044762</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>

--- a/Data_Envariance/ibmqx4_n_qubits_envariance.xlsx
+++ b/Data_Envariance/ibmqx4_n_qubits_envariance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1411,6 +1411,8 @@
         <c:axId val="504828424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4179,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4573,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2769531-8DA3-40A8-9811-03A5637AC77E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
